--- a/results/damage_detection_results.xlsx
+++ b/results/damage_detection_results.xlsx
@@ -1,14 +1,33 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="filtered" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="all_data" sheetId="2" state="visible" r:id="rId2"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -27,12 +46,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -390,4 +418,3116 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Image_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision_0</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Recall_0</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>F1_0</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Precision_1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Recall_1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>F1_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>263720</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>144</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>596</v>
+      </c>
+      <c r="E2" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1945945945945946</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3257918552036199</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0464</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.08868501529051988</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>263956</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1043</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>292</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7812734082397004</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8772077375946173</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>264451</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>367</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>382</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4899866488651535</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6577060931899642</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>264954</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3894</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>622</v>
+      </c>
+      <c r="E5" t="n">
+        <v>131</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8622674933569531</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9260404280618312</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1739707835325365</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2963800904977376</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>266600</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>362</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7399425287356322</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8505367464905037</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>267104</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>181</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>595</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2332474226804124</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3782654127481714</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>267127</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>725</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>273</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7264529058116233</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8415554265815438</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>267810</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3095</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>691</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8174854727945061</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8995785496294143</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>268164</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2586</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>963</v>
+      </c>
+      <c r="E10" t="n">
+        <v>18</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7286559594251902</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8430317848410758</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01834862385321101</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.03603603603603604</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>348438</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11842</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4238</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7364427860696517</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9999155619353205</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8481896644343373</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.005864414731409805</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.01165772907437631</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>348451</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>604</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.7635082223962412</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8658969804618117</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>349377</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>488</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>328</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5980392156862745</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.7484662576687117</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>349675</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>393</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>204</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6582914572864321</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.7939393939393939</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>351994</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>626</v>
+      </c>
+      <c r="E15" t="n">
+        <v>391</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7598772535481396</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8635571054925893</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.3844641101278269</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.5553977272727273</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>354465</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>367</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>208</v>
+      </c>
+      <c r="E16" t="n">
+        <v>32</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.6382608695652174</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.7791932059447984</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>354702</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>397</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>297</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.5720461095100865</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7277726856095326</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.003355704697986577</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.006688963210702341</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>354829</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>575</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>541</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.5152329749103942</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6800709639266707</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>358521</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2294</v>
+      </c>
+      <c r="C19" t="n">
+        <v>19</v>
+      </c>
+      <c r="D19" t="n">
+        <v>965</v>
+      </c>
+      <c r="E19" t="n">
+        <v>66</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7038969008898435</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9917855598789451</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.823402727925341</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.7764705882352941</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.06401551891367604</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1182795698924731</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>359839</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>211</v>
+      </c>
+      <c r="C20" t="n">
+        <v>166</v>
+      </c>
+      <c r="D20" t="n">
+        <v>322</v>
+      </c>
+      <c r="E20" t="n">
+        <v>187</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3958724202626642</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5596816976127321</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4637362637362638</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5297450424929179</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3673870333988212</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4338747099767982</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>360087</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1046</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>290</v>
+      </c>
+      <c r="E21" t="n">
+        <v>13</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7829341317365269</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8782535684298909</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0429042904290429</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.08227848101265822</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>360172</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>254</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>498</v>
+      </c>
+      <c r="E22" t="n">
+        <v>164</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3377659574468085</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9883268482490273</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5034687809712587</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9820359281437125</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.2477341389728097</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3956574185765983</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>360214</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1365</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>294</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8227848101265823</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9027777777777778</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>360452</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>594</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E24" t="n">
+        <v>147</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.2275862068965517</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.3707865168539326</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.06796116504854369</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1272727272727273</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>360978</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>200</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>465</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3007518796992481</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.4624277456647399</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>360980</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>150</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1029</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1272264631043257</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2257336343115124</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.009624639076034648</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.01906577693040992</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>361044</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>8983</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2115</v>
+      </c>
+      <c r="E27" t="n">
+        <v>218</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8094251216435394</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8946765599322742</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.09344192027432491</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1709133673069385</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>361058</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4985</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3877</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1156</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5625141051681336</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.7200115548494259</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.2296840850387443</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3735660042010018</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>361544</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1442</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>697</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.6741467975689575</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8053616308293773</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>362417</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2859</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1514</v>
+      </c>
+      <c r="E30" t="n">
+        <v>118</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6537845872398811</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9989517819706499</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.790324809951624</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.9752066115702479</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.07230392156862746</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.134626354820308</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>362444</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>335</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>797</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.2959363957597173</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.4567143830947512</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>363051</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2854</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>620</v>
+      </c>
+      <c r="E32" t="n">
+        <v>13</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.8215313759355211</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9020227560050569</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.02053712480252765</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.04024767801857585</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>363198</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>717</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>137</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.8395784543325527</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9127943984723106</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>363850</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2058</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1066</v>
+      </c>
+      <c r="E34" t="n">
+        <v>79</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.6587708066581306</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.794287919722115</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.06899563318777292</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.1290849673202615</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>363926</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>154</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>613</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.2007822685788787</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.3344191096634093</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>364341</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>625</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>365</v>
+      </c>
+      <c r="E36" t="n">
+        <v>132</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.6313131313131313</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.7739938080495357</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2655935613682093</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.4197138314785374</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>364368</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>138</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>570</v>
+      </c>
+      <c r="E37" t="n">
+        <v>138</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1949152542372881</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.3262411347517731</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.1949152542372881</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.3262411347517731</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>364463</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1624</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>656</v>
+      </c>
+      <c r="E38" t="n">
+        <v>27</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.712280701754386</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.8319672131147541</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.03953147877013177</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.07605633802816901</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>364487</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2027</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>614</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7675123059447179</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.8684661525278492</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.003246753246753247</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.006472491909385114</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>365344</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2258</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>591</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7925587925587926</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8842764832582729</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>366090</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2641</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>779</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.7722222222222223</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8714733542319749</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Image_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Precision_0</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Recall_0</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>F1_0</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Precision_1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Recall_1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>F1_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>263720</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1548</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>604</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7193308550185874</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9929441949967928</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8342764753435732</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0336</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0639269406392694</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>263956</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1570</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>292</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8431793770139635</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.914918414918415</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>264451</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>382</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8028895768833849</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8906697195191757</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>264954</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7048</v>
+      </c>
+      <c r="C5" t="n">
+        <v>775</v>
+      </c>
+      <c r="D5" t="n">
+        <v>643</v>
+      </c>
+      <c r="E5" t="n">
+        <v>110</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9163957872838383</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9009331458519749</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9085986850586567</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1242937853107345</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1460823373173971</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1343101343101343</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>266600</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2374</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>362</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8676900584795322</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9291585127201566</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>267104</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2216</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>595</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7883315546069014</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9986480396575034</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8811133200795228</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>267127</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2416</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>273</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.898475269616958</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9991728701406121</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9461523399255923</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>267810</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5076</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>691</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8801803363967401</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9362722493774785</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>268164</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4044</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>971</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8063808574277168</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9960591133004926</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8912396694214876</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01019367991845056</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0198609731876862</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>348438</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>22934</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4244</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8438442858194127</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9995205927217259</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9151088322726094</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.004456955195871452</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.008851618914511996</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>348451</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3120</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>604</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8378088077336198</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9117475160724723</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>349377</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2875</v>
+      </c>
+      <c r="C13" t="n">
+        <v>37</v>
+      </c>
+      <c r="D13" t="n">
+        <v>328</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8975960037464876</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9872939560439561</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9403107113654947</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>349675</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1056</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>204</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8380952380952381</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9119170984455959</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>351994</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3947</v>
+      </c>
+      <c r="C15" t="n">
+        <v>282</v>
+      </c>
+      <c r="D15" t="n">
+        <v>648</v>
+      </c>
+      <c r="E15" t="n">
+        <v>369</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8589771490750816</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9333175691652873</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8946056210335449</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5668202764976958</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.3628318584070797</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.4424460431654677</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>354465</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>950</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>213</v>
+      </c>
+      <c r="E16" t="n">
+        <v>27</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8168529664660361</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8991954566966398</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2022471910112359</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>354702</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>298</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7981029810298103</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8877166541070083</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>354829</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1640</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>541</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7519486474094452</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9981740718198417</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8577405857740585</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>358521</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4786</v>
+      </c>
+      <c r="C19" t="n">
+        <v>186</v>
+      </c>
+      <c r="D19" t="n">
+        <v>979</v>
+      </c>
+      <c r="E19" t="n">
+        <v>52</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.830182133564614</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9625905068382945</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8914966936760734</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2184873949579832</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0504364694471387</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.08195429472025216</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>359839</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>583</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>322</v>
+      </c>
+      <c r="E20" t="n">
+        <v>187</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6441988950276243</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.7083839611178615</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6747685185185185</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.4379391100702576</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3673870333988212</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3995726495726496</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>360087</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1765</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>293</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8576287657920311</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9233586188856918</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.033003300330033</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.06389776357827476</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>360172</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>556</v>
+      </c>
+      <c r="C22" t="n">
+        <v>69</v>
+      </c>
+      <c r="D22" t="n">
+        <v>514</v>
+      </c>
+      <c r="E22" t="n">
+        <v>148</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5196261682242991</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8895999999999999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.656047197640118</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6820276497695853</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.2235649546827795</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3367463026166098</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>360214</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C23" t="n">
+        <v>130</v>
+      </c>
+      <c r="D23" t="n">
+        <v>294</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.868632707774799</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9373191899710704</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9016697588126159</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>360452</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>7215</v>
+      </c>
+      <c r="C24" t="n">
+        <v>16</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2072</v>
+      </c>
+      <c r="E24" t="n">
+        <v>91</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7768924302788844</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9977873046604896</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8735924446058845</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8504672897196262</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.04207119741100324</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0801762114537445</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>360978</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1407</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>465</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7516025641025641</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8581884720951509</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>360980</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>989</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1039</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.48767258382643</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.6556181637388134</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>361044</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>18141</v>
+      </c>
+      <c r="C27" t="n">
+        <v>721</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2156</v>
+      </c>
+      <c r="E27" t="n">
+        <v>177</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8937774055279105</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9617749973491676</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9265302995479966</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1971046770601336</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.07586798114016288</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1095636025998143</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>361058</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>13514</v>
+      </c>
+      <c r="C28" t="n">
+        <v>173</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3994</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1039</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.7718757139593329</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9873602688682691</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8664209007853823</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8572607260726073</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.2064375124180409</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3327461969575661</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>361544</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3537</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>697</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.8353802550779404</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9103075537253893</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>362417</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4383</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1553</v>
+      </c>
+      <c r="E30" t="n">
+        <v>79</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.7383760107816711</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9993160054719562</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.8492540205386553</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.9634146341463414</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.04840686274509804</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.09218203033838973</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>362444</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2308</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>797</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.743317230273752</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8527618695732496</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>363051</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3462</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>629</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.8462478611586409</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.916721832384483</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.00631911532385466</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.01255886970172685</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>363198</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1182</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>137</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.8961334344200151</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9991546914623838</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9448441247002398</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>363850</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5775</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1504</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1083</v>
+      </c>
+      <c r="E34" t="n">
+        <v>62</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.842082239720035</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.79337821129276</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8170050222819552</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.03959131545338442</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.05414847161572053</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.04573957949096275</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>363926</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>927</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>613</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.6019480519480519</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.7515200648561006</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>364341</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3092</v>
+      </c>
+      <c r="C36" t="n">
+        <v>30</v>
+      </c>
+      <c r="D36" t="n">
+        <v>387</v>
+      </c>
+      <c r="E36" t="n">
+        <v>110</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.8887611382581202</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9903907751441384</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9368277533707015</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2213279678068411</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.3453689167974882</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>364368</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>725</v>
+      </c>
+      <c r="C37" t="n">
+        <v>29</v>
+      </c>
+      <c r="D37" t="n">
+        <v>600</v>
+      </c>
+      <c r="E37" t="n">
+        <v>108</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.5471698113207547</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.6974506974506974</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.7883211678832117</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.1525423728813559</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2556213017751479</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>364463</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4116</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25</v>
+      </c>
+      <c r="D38" t="n">
+        <v>667</v>
+      </c>
+      <c r="E38" t="n">
+        <v>16</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8605477733639975</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9939628109152379</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9224562976243836</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.3902439024390244</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.02342606149341142</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.04419889502762431</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>364487</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2620</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>616</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.8096415327564895</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9984756097560976</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.89419795221843</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>365344</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4491</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>591</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8837072018890201</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9986657771847899</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.9376761666144692</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>366090</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5101</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>779</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.867517006802721</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.9290592842181951</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>